--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-laptop\source\repos\QuanLyHoSo\Assets\Excel\Category\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8AC5EB-8708-4F3B-A23F-9CDEF3E063C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC652AEE-CE38-4D01-B812-474D8DB8972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{5D827FDB-3D87-44DC-BC1E-84EB5B696D4D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D827FDB-3D87-44DC-BC1E-84EB5B696D4D}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>TrangThai</t>
   </si>
@@ -43,9 +43,6 @@
     <t>MoTa</t>
   </si>
   <si>
-    <t>kho excel test thu</t>
-  </si>
-  <si>
     <t>TenDanhMuc</t>
   </si>
   <si>
@@ -55,94 +52,121 @@
     <t>MaDanhMucCha</t>
   </si>
   <si>
-    <t>danhmuc ex1</t>
-  </si>
-  <si>
-    <t>danhmuc ex2</t>
-  </si>
-  <si>
-    <t>danhmuc ex3</t>
-  </si>
-  <si>
-    <t>danhmuc ex4</t>
-  </si>
-  <si>
-    <t>danhmuc ex5</t>
-  </si>
-  <si>
-    <t>danhmuc ex6</t>
-  </si>
-  <si>
-    <t>danhmuc ex7</t>
-  </si>
-  <si>
-    <t>danhmuc ex8</t>
-  </si>
-  <si>
-    <t>danhmuc ex9</t>
-  </si>
-  <si>
-    <t>danhmuc ex10</t>
-  </si>
-  <si>
-    <t>danhmuc ex11</t>
-  </si>
-  <si>
-    <t>danhmuc ex12</t>
-  </si>
-  <si>
-    <t>danhmuc ex13</t>
-  </si>
-  <si>
-    <t>danhmuc ex14</t>
-  </si>
-  <si>
-    <t>danhmuc ex15</t>
-  </si>
-  <si>
-    <t>dme2</t>
-  </si>
-  <si>
-    <t>dme3</t>
-  </si>
-  <si>
-    <t>dme4</t>
-  </si>
-  <si>
-    <t>dme5</t>
-  </si>
-  <si>
-    <t>dme6</t>
-  </si>
-  <si>
-    <t>dme7</t>
-  </si>
-  <si>
-    <t>dme8</t>
-  </si>
-  <si>
-    <t>dme9</t>
-  </si>
-  <si>
-    <t>dme10</t>
-  </si>
-  <si>
-    <t>dme11</t>
-  </si>
-  <si>
-    <t>dme12</t>
-  </si>
-  <si>
-    <t>dme13</t>
-  </si>
-  <si>
-    <t>dme14</t>
-  </si>
-  <si>
-    <t>dme15</t>
-  </si>
-  <si>
-    <t>parrent</t>
+    <t>danhmuc3</t>
+  </si>
+  <si>
+    <t>dm3</t>
+  </si>
+  <si>
+    <t>danhmuc4</t>
+  </si>
+  <si>
+    <t>dm4</t>
+  </si>
+  <si>
+    <t>danhmuc5</t>
+  </si>
+  <si>
+    <t>dm5</t>
+  </si>
+  <si>
+    <t>danhmuc6</t>
+  </si>
+  <si>
+    <t>dm6</t>
+  </si>
+  <si>
+    <t>danhmuc7</t>
+  </si>
+  <si>
+    <t>dm7</t>
+  </si>
+  <si>
+    <t>danhmuc8</t>
+  </si>
+  <si>
+    <t>dm8</t>
+  </si>
+  <si>
+    <t>danhmuc9</t>
+  </si>
+  <si>
+    <t>dm9</t>
+  </si>
+  <si>
+    <t>danhmuc10</t>
+  </si>
+  <si>
+    <t>dm10</t>
+  </si>
+  <si>
+    <t>danhmuc11</t>
+  </si>
+  <si>
+    <t>dm11</t>
+  </si>
+  <si>
+    <t>danhmuc12</t>
+  </si>
+  <si>
+    <t>dm12</t>
+  </si>
+  <si>
+    <t>danhmuc13</t>
+  </si>
+  <si>
+    <t>dm13</t>
+  </si>
+  <si>
+    <t>danhmuc14</t>
+  </si>
+  <si>
+    <t>dm14</t>
+  </si>
+  <si>
+    <t>danhmuc15</t>
+  </si>
+  <si>
+    <t>dm15</t>
+  </si>
+  <si>
+    <t>danhmuc16</t>
+  </si>
+  <si>
+    <t>dm16</t>
+  </si>
+  <si>
+    <t>danhmuc17</t>
+  </si>
+  <si>
+    <t>dm17</t>
+  </si>
+  <si>
+    <t>danhmuc18</t>
+  </si>
+  <si>
+    <t>dm18</t>
+  </si>
+  <si>
+    <t>danhmuc19</t>
+  </si>
+  <si>
+    <t>dm19</t>
+  </si>
+  <si>
+    <t>danhmuc20</t>
+  </si>
+  <si>
+    <t>dm20</t>
+  </si>
+  <si>
+    <t>danhmuc21</t>
+  </si>
+  <si>
+    <t>dm21</t>
+  </si>
+  <si>
+    <t>dm2</t>
   </si>
 </sst>
 </file>
@@ -514,30 +538,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C34D6A-8752-4C76-BC59-E44550E99B6D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -548,7 +572,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,219 +592,305 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>2</v>
+      <c r="E6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>2</v>
+      <c r="E8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>2</v>
+      <c r="E10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" t="s">
-        <v>2</v>
+      <c r="E12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>2</v>
+      <c r="E14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9066B24F-7B9C-4B7A-93BA-3E3565886F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D84D56-3D95-44C4-A63C-C016A8F7E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>TenDanhMuc</t>
   </si>
@@ -62,37 +62,44 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>danh mục 2</t>
-  </si>
-  <si>
-    <t>dm2</t>
-  </si>
-  <si>
-    <t>danh mục gốc</t>
-  </si>
-  <si>
-    <t>dmgoc</t>
-  </si>
-  <si>
-    <t>danh mục 5</t>
-  </si>
-  <si>
-    <t>dm5</t>
-  </si>
-  <si>
-    <t>danh mục 10</t>
-  </si>
-  <si>
-    <t>dm10</t>
+    <t>excel 1</t>
+  </si>
+  <si>
+    <t>excel 2</t>
+  </si>
+  <si>
+    <t>excel 3</t>
+  </si>
+  <si>
+    <t>excel 4</t>
+  </si>
+  <si>
+    <t>danh muc excel 1</t>
+  </si>
+  <si>
+    <t>danh muc excel 2</t>
+  </si>
+  <si>
+    <t>danh muc excel 3</t>
+  </si>
+  <si>
+    <t>danh muc excel 4</t>
+  </si>
+  <si>
+    <t>danh muc excel 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -137,8 +144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E5">
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E7">
+  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenDanhMuc"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaDanhMuc"/>
@@ -151,8 +158,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B4">
-  <autoFilter ref="A1:B4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenDanhMucCha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaDanhMuc"/>
@@ -469,19 +476,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -503,27 +510,27 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -531,28 +538,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>123</v>
-      </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>123</v>
-      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -560,17 +575,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{B1FAF734-AFFF-421A-BDEA-7F4FBD9142F7}">
+        <x14:dataValidation type="list" xr:uid="{F902B968-056E-4112-93F6-FE966F93EA4D}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$B$2:$B$4</xm:f>
+            <xm:f>ThongTinBang!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C5</xm:sqref>
+          <xm:sqref>C2:C7</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{8B18F7EE-5BFA-4E69-8984-3BED7A56F0A4}">
+        <x14:dataValidation type="list" xr:uid="{ADA78EBC-4E50-42AE-B300-DBB5C246F929}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D5</xm:sqref>
+          <xm:sqref>D2:D7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -580,16 +595,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -632,14 +647,6 @@
       </c>
       <c r="E3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D84D56-3D95-44C4-A63C-C016A8F7E88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744AF0B6-8B9C-410B-B5DD-42D1D645B1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>TenDanhMuc</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Đóng</t>
   </si>
   <si>
-    <t>danh mục 1</t>
+    <t>danh muc 1</t>
   </si>
   <si>
     <t>dm1</t>
@@ -62,44 +62,37 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>excel 1</t>
-  </si>
-  <si>
-    <t>excel 2</t>
-  </si>
-  <si>
-    <t>excel 3</t>
-  </si>
-  <si>
-    <t>excel 4</t>
-  </si>
-  <si>
-    <t>danh muc excel 1</t>
-  </si>
-  <si>
-    <t>danh muc excel 2</t>
-  </si>
-  <si>
-    <t>danh muc excel 3</t>
-  </si>
-  <si>
-    <t>danh muc excel 4</t>
-  </si>
-  <si>
-    <t>danh muc excel 5</t>
+    <t>danh muc 2</t>
+  </si>
+  <si>
+    <t>dm2</t>
+  </si>
+  <si>
+    <t>danh muc 3</t>
+  </si>
+  <si>
+    <t>dm3</t>
+  </si>
+  <si>
+    <t>danh muc 4</t>
+  </si>
+  <si>
+    <t>dm4</t>
+  </si>
+  <si>
+    <t>danh muc goc</t>
+  </si>
+  <si>
+    <t>dmgoc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -144,8 +137,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E7">
-  <autoFilter ref="A1:E7" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E2">
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenDanhMuc"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaDanhMuc"/>
@@ -158,8 +151,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3">
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B6">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenDanhMucCha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaDanhMuc"/>
@@ -476,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -510,64 +503,22 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="1"/>
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -575,17 +526,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{F902B968-056E-4112-93F6-FE966F93EA4D}">
+        <x14:dataValidation type="list" xr:uid="{E2ED4468-1409-45E5-AB71-E85754B27417}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$B$2:$B$3</xm:f>
+            <xm:f>ThongTinBang!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{ADA78EBC-4E50-42AE-B300-DBB5C246F929}">
+        <x14:dataValidation type="list" xr:uid="{E6692AC2-B75A-48A3-A04A-39861F1D5A89}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D7</xm:sqref>
+          <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -595,9 +546,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -649,6 +602,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teu-pc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744AF0B6-8B9C-410B-B5DD-42D1D645B1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD592E-4948-4F74-BD5E-76E90BFD909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>TenDanhMuc</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Đóng</t>
   </si>
   <si>
-    <t>danh muc 1</t>
+    <t>danh mục 1</t>
   </si>
   <si>
     <t>dm1</t>
@@ -62,37 +62,29 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>danh muc 2</t>
-  </si>
-  <si>
-    <t>dm2</t>
-  </si>
-  <si>
-    <t>danh muc 3</t>
-  </si>
-  <si>
-    <t>dm3</t>
-  </si>
-  <si>
-    <t>danh muc 4</t>
-  </si>
-  <si>
-    <t>dm4</t>
-  </si>
-  <si>
-    <t>danh muc goc</t>
-  </si>
-  <si>
-    <t>dmgoc</t>
+    <t>danh mục ex1</t>
+  </si>
+  <si>
+    <t>ex1</t>
+  </si>
+  <si>
+    <t>danh mục ex2</t>
+  </si>
+  <si>
+    <t>ex2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -137,8 +129,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E2">
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E3">
+  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenDanhMuc"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaDanhMuc"/>
@@ -151,8 +143,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B6">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3">
+  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenDanhMucCha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaDanhMuc"/>
@@ -469,19 +461,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -503,10 +495,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -515,10 +507,28 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>123</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -526,17 +536,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{E2ED4468-1409-45E5-AB71-E85754B27417}">
+        <x14:dataValidation type="list" xr:uid="{AEE3AD2F-994F-4DE7-A7C3-491D5D6D611A}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$B$2:$B$6</xm:f>
+            <xm:f>ThongTinBang!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{E6692AC2-B75A-48A3-A04A-39861F1D5A89}">
+        <x14:dataValidation type="list" xr:uid="{3ABDE601-82BF-40DE-B4AB-8F893BDBE003}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -546,18 +556,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -600,30 +610,6 @@
       </c>
       <c r="E3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBD592E-4948-4F74-BD5E-76E90BFD909D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACE5CB-671D-41B4-B5FC-54DF86F59231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>TenDanhMuc</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Trống</t>
   </si>
   <si>
-    <t>100</t>
+    <t>NONE</t>
   </si>
   <si>
     <t>Đóng</t>
@@ -62,16 +62,52 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>danh mục ex1</t>
-  </si>
-  <si>
-    <t>ex1</t>
-  </si>
-  <si>
-    <t>danh mục ex2</t>
-  </si>
-  <si>
-    <t>ex2</t>
+    <t>danh mục ex100</t>
+  </si>
+  <si>
+    <t>ex100</t>
+  </si>
+  <si>
+    <t>danh mục 34</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>hello123</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>danh mục 2</t>
+  </si>
+  <si>
+    <t>dm2</t>
+  </si>
+  <si>
+    <t>dm a</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>dm b</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ẽccel1</t>
+  </si>
+  <si>
+    <t>e1</t>
+  </si>
+  <si>
+    <t>ẽccel2</t>
+  </si>
+  <si>
+    <t>e2</t>
   </si>
 </sst>
 </file>
@@ -143,8 +179,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B3">
-  <autoFilter ref="A1:B3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B9">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenDanhMucCha"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaDanhMuc"/>
@@ -464,7 +500,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -495,16 +531,16 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -512,19 +548,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -536,13 +572,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{AEE3AD2F-994F-4DE7-A7C3-491D5D6D611A}">
+        <x14:dataValidation type="list" xr:uid="{3F9E8B69-4163-4764-90C0-6445E62ED3B5}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$B$2:$B$3</xm:f>
+            <xm:f>ThongTinBang!$B$2:$B$9</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{3ABDE601-82BF-40DE-B4AB-8F893BDBE003}">
+        <x14:dataValidation type="list" xr:uid="{3CFECE76-2309-472A-9DF7-593940229DEF}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
@@ -556,11 +592,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
@@ -612,6 +646,54 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="2">

--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CACE5CB-671D-41B4-B5FC-54DF86F59231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6FFF4-F106-4C95-B31C-8C5C87A2C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>TenDanhMuc</t>
   </si>
@@ -53,74 +53,22 @@
     <t>Đóng</t>
   </si>
   <si>
+    <t>Mở</t>
+  </si>
+  <si>
+    <t>dm1</t>
+  </si>
+  <si>
     <t>danh mục 1</t>
-  </si>
-  <si>
-    <t>dm1</t>
-  </si>
-  <si>
-    <t>Mở</t>
-  </si>
-  <si>
-    <t>danh mục ex100</t>
-  </si>
-  <si>
-    <t>ex100</t>
-  </si>
-  <si>
-    <t>danh mục 34</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>hello123</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>danh mục 2</t>
-  </si>
-  <si>
-    <t>dm2</t>
-  </si>
-  <si>
-    <t>dm a</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>dm b</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>ẽccel1</t>
-  </si>
-  <si>
-    <t>e1</t>
-  </si>
-  <si>
-    <t>ẽccel2</t>
-  </si>
-  <si>
-    <t>e2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -144,9 +92,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,8 +112,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E3">
-  <autoFilter ref="A1:E3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E2">
+  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenDanhMuc"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaDanhMuc"/>
@@ -174,18 +121,18 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="TrangThai"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="MoTa"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B9">
-  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B2">
+  <autoFilter ref="A1:B2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="TenDanhMucCha"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaDanhMuc"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="MaDanhMucCha"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -196,7 +143,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="TrangThai"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="MaTrangThai"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -497,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -513,58 +460,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -572,17 +501,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{3F9E8B69-4163-4764-90C0-6445E62ED3B5}">
+        <x14:dataValidation type="list" xr:uid="{1BF3CF39-6FB8-48B4-AA42-55674EBB038D}">
           <x14:formula1>
-            <xm:f>ThongTinBang!$B$2:$B$9</xm:f>
+            <xm:f>ThongTinBang!$B$2:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3</xm:sqref>
+          <xm:sqref>C2</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{3CFECE76-2309-472A-9DF7-593940229DEF}">
+        <x14:dataValidation type="list" xr:uid="{D0620C17-4BF8-4452-8869-75A641C3DA6A}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D3</xm:sqref>
+          <xm:sqref>D2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -592,29 +521,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -633,65 +562,11 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Category/Category.xlsx
+++ b/Assets/Excel/Category/Category.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6FFF4-F106-4C95-B31C-8C5C87A2C2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B25CE0D-2137-4EF3-B293-3FE0854816F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="ThongTinBang" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>TenDanhMuc</t>
   </si>
@@ -56,19 +68,197 @@
     <t>Mở</t>
   </si>
   <si>
-    <t>dm1</t>
-  </si>
-  <si>
-    <t>danh mục 1</t>
+    <t>danh mục excel 1</t>
+  </si>
+  <si>
+    <t>edm1</t>
+  </si>
+  <si>
+    <t>mota 1</t>
+  </si>
+  <si>
+    <t>danh mục excel 2</t>
+  </si>
+  <si>
+    <t>edm2</t>
+  </si>
+  <si>
+    <t>mota 2</t>
+  </si>
+  <si>
+    <t>danh mục excel 3</t>
+  </si>
+  <si>
+    <t>edm3</t>
+  </si>
+  <si>
+    <t>mota 3</t>
+  </si>
+  <si>
+    <t>danh mục excel 4</t>
+  </si>
+  <si>
+    <t>edm4</t>
+  </si>
+  <si>
+    <t>mota 4</t>
+  </si>
+  <si>
+    <t>danh mục excel 5</t>
+  </si>
+  <si>
+    <t>edm5</t>
+  </si>
+  <si>
+    <t>mota 5</t>
+  </si>
+  <si>
+    <t>danh mục excel 6</t>
+  </si>
+  <si>
+    <t>edm6</t>
+  </si>
+  <si>
+    <t>mota 6</t>
+  </si>
+  <si>
+    <t>danh mục excel 7</t>
+  </si>
+  <si>
+    <t>edm7</t>
+  </si>
+  <si>
+    <t>mota 7</t>
+  </si>
+  <si>
+    <t>danh mục excel 8</t>
+  </si>
+  <si>
+    <t>edm8</t>
+  </si>
+  <si>
+    <t>mota 8</t>
+  </si>
+  <si>
+    <t>danh mục excel 9</t>
+  </si>
+  <si>
+    <t>edm9</t>
+  </si>
+  <si>
+    <t>mota 9</t>
+  </si>
+  <si>
+    <t>danh mục excel 10</t>
+  </si>
+  <si>
+    <t>edm10</t>
+  </si>
+  <si>
+    <t>mota 10</t>
+  </si>
+  <si>
+    <t>danh mục excel 11</t>
+  </si>
+  <si>
+    <t>edm11</t>
+  </si>
+  <si>
+    <t>mota 11</t>
+  </si>
+  <si>
+    <t>danh mục excel 12</t>
+  </si>
+  <si>
+    <t>edm12</t>
+  </si>
+  <si>
+    <t>mota 12</t>
+  </si>
+  <si>
+    <t>danh mục excel 13</t>
+  </si>
+  <si>
+    <t>edm13</t>
+  </si>
+  <si>
+    <t>mota 13</t>
+  </si>
+  <si>
+    <t>danh mục excel 14</t>
+  </si>
+  <si>
+    <t>edm14</t>
+  </si>
+  <si>
+    <t>mota 14</t>
+  </si>
+  <si>
+    <t>danh mục excel 15</t>
+  </si>
+  <si>
+    <t>edm15</t>
+  </si>
+  <si>
+    <t>mota 15</t>
+  </si>
+  <si>
+    <t>danh mục excel 16</t>
+  </si>
+  <si>
+    <t>edm16</t>
+  </si>
+  <si>
+    <t>mota 16</t>
+  </si>
+  <si>
+    <t>danh mục excel 17</t>
+  </si>
+  <si>
+    <t>edm17</t>
+  </si>
+  <si>
+    <t>mota 17</t>
+  </si>
+  <si>
+    <t>danh mục excel 18</t>
+  </si>
+  <si>
+    <t>edm18</t>
+  </si>
+  <si>
+    <t>mota 18</t>
+  </si>
+  <si>
+    <t>danh mục excel 19</t>
+  </si>
+  <si>
+    <t>edm19</t>
+  </si>
+  <si>
+    <t>mota 19</t>
+  </si>
+  <si>
+    <t>danh mục excel 20</t>
+  </si>
+  <si>
+    <t>edm20</t>
+  </si>
+  <si>
+    <t>mota 20</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -92,8 +282,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E2">
-  <autoFilter ref="A1:E2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E21">
+  <autoFilter ref="A1:E21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TenDanhMuc"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="MaDanhMuc"/>
@@ -444,56 +635,397 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>B4</f>
+        <v>edm3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f t="shared" ref="C6:C21" si="0">B5</f>
+        <v>edm4</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm11</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm12</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm14</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm17</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>edm19</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -501,17 +1033,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" xr:uid="{1BF3CF39-6FB8-48B4-AA42-55674EBB038D}">
+        <x14:dataValidation type="list" xr:uid="{CA5AAC19-0D89-4B15-9487-4CEF1D1C19C0}">
           <x14:formula1>
             <xm:f>ThongTinBang!$B$2:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C2</xm:sqref>
+          <xm:sqref>C2 C5:C21</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" xr:uid="{D0620C17-4BF8-4452-8869-75A641C3DA6A}">
+        <x14:dataValidation type="list" xr:uid="{22930E38-A01B-4654-8F1D-E82327A9309B}">
           <x14:formula1>
             <xm:f>ThongTinBang!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2</xm:sqref>
+          <xm:sqref>D2:D21</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -525,25 +1057,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
